--- a/test/evol.xlsx
+++ b/test/evol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhujuxing\Desktop\repo\cloud-virtualization-network-reliabilty\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0E62B7-0C0D-4D75-B253-BED4F29D6127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F65EC-7564-4BA1-B37D-2E13E92C4312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>EvolTime</t>
   </si>
@@ -67,20 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[V1]</t>
-  </si>
-  <si>
-    <t>[V1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[V1,V4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[V4]</t>
-  </si>
-  <si>
     <t>[S1]</t>
   </si>
   <si>
@@ -88,6 +74,15 @@
   </si>
   <si>
     <t>[T2]</t>
+  </si>
+  <si>
+    <t>[V3]</t>
+  </si>
+  <si>
+    <t>[V3,V6]</t>
+  </si>
+  <si>
+    <t>[V6]</t>
   </si>
 </sst>
 </file>
@@ -496,7 +491,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -522,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -533,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -544,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -558,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -566,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -577,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -588,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -602,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test/evol.xlsx
+++ b/test/evol.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\Desktop\cloud-virtualization-network-reliabilty\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F65EC-7564-4BA1-B37D-2E13E92C4312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>EvolTime</t>
   </si>
@@ -70,25 +69,31 @@
     <t>[S1]</t>
   </si>
   <si>
-    <t>[S1,T2]</t>
-  </si>
-  <si>
     <t>[T2]</t>
   </si>
   <si>
     <t>[V3]</t>
   </si>
   <si>
-    <t>[V3,V6]</t>
-  </si>
-  <si>
     <t>[V6]</t>
+  </si>
+  <si>
+    <t>[V6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[T2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,7 +173,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,23 +248,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -295,23 +283,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,21 +458,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.53125" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,18 +483,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -534,18 +505,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -553,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -567,29 +538,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>

--- a/test/evol.xlsx
+++ b/test/evol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>EvolTime</t>
   </si>
@@ -78,15 +78,19 @@
     <t>[V6]</t>
   </si>
   <si>
-    <t>[V6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[T2]</t>
+    <t>[V3,V6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[V3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S1,T2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
